--- a/includes/lst-employes.xlsx
+++ b/includes/lst-employes.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
   <si>
     <t>ID</t>
   </si>
@@ -47,13 +47,13 @@
     <t>Dernière connexion</t>
   </si>
   <si>
-    <t>Rouy</t>
+    <t>ROUY</t>
   </si>
   <si>
     <t>Mathis</t>
   </si>
   <si>
-    <t>c1120</t>
+    <t>C1120</t>
   </si>
   <si>
     <t>c1120@cnetp.fr</t>
@@ -71,16 +71,16 @@
     <t>2023-06-01</t>
   </si>
   <si>
-    <t>2023-07-05 11:15:02</t>
-  </si>
-  <si>
-    <t>Nankoo</t>
+    <t>2023-09-08 09:44:51</t>
+  </si>
+  <si>
+    <t>NANKOO</t>
   </si>
   <si>
     <t>Kevin</t>
   </si>
   <si>
-    <t>c1091</t>
+    <t>C1091</t>
   </si>
   <si>
     <t>c1091@cnetp.fr</t>
@@ -95,13 +95,13 @@
     <t>2023-06-01 14:55:08</t>
   </si>
   <si>
-    <t>Pessi</t>
+    <t>PESSI</t>
   </si>
   <si>
     <t>Pionnel</t>
   </si>
   <si>
-    <t>c0123</t>
+    <t>C0123</t>
   </si>
   <si>
     <t>c0123@cnetp.fr</t>
@@ -120,6 +120,60 @@
   </si>
   <si>
     <t>2023-06-02 14:40:17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HAOUZI </t>
+  </si>
+  <si>
+    <t>Jean-Luc</t>
+  </si>
+  <si>
+    <t>C0321</t>
+  </si>
+  <si>
+    <t>jlh@cnetp.fr</t>
+  </si>
+  <si>
+    <t>0000-00-00</t>
+  </si>
+  <si>
+    <t>2023-07-20 11:21:13</t>
+  </si>
+  <si>
+    <t>GORLIEZ</t>
+  </si>
+  <si>
+    <t>Karine</t>
+  </si>
+  <si>
+    <t>C0910</t>
+  </si>
+  <si>
+    <t>C0910@cnetp.fr</t>
+  </si>
+  <si>
+    <t>DSI</t>
+  </si>
+  <si>
+    <t>2023-07-20 11:33:03</t>
+  </si>
+  <si>
+    <t>MALJAOUI</t>
+  </si>
+  <si>
+    <t>Souhail</t>
+  </si>
+  <si>
+    <t>C0456</t>
+  </si>
+  <si>
+    <t>Service Etudes &amp; Homologation</t>
+  </si>
+  <si>
+    <t>Chef de service Etudes et Homo</t>
+  </si>
+  <si>
+    <t>2023-07-20 11:33:06</t>
   </si>
 </sst>
 </file>
@@ -458,7 +512,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -592,6 +646,102 @@
       </c>
       <c r="J4" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/includes/lst-employes.xlsx
+++ b/includes/lst-employes.xlsx
@@ -71,7 +71,7 @@
     <t>2023-06-01</t>
   </si>
   <si>
-    <t>2023-09-08 09:44:51</t>
+    <t>2023-09-14 10:36:36</t>
   </si>
   <si>
     <t>NANKOO</t>

--- a/includes/lst-employes.xlsx
+++ b/includes/lst-employes.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52">
   <si>
     <t>ID</t>
   </si>
@@ -62,7 +62,7 @@
     <t>INF</t>
   </si>
   <si>
-    <t>Développeur junior</t>
+    <t xml:space="preserve">Responsable du Service Etudes </t>
   </si>
   <si>
     <t>100 - Super Admin</t>
@@ -71,7 +71,7 @@
     <t>2023-06-01</t>
   </si>
   <si>
-    <t>2023-09-14 10:36:36</t>
+    <t>2023-11-15 10:15:04</t>
   </si>
   <si>
     <t>NANKOO</t>
@@ -95,10 +95,10 @@
     <t>2023-06-01 14:55:08</t>
   </si>
   <si>
-    <t>PESSI</t>
-  </si>
-  <si>
-    <t>Pionnel</t>
+    <t>PIGOUCHET</t>
+  </si>
+  <si>
+    <t>Etienne</t>
   </si>
   <si>
     <t>C0123</t>
@@ -107,10 +107,7 @@
     <t>c0123@cnetp.fr</t>
   </si>
   <si>
-    <t>PREST</t>
-  </si>
-  <si>
-    <t>Gestionnaire Prestations</t>
+    <t>DSI</t>
   </si>
   <si>
     <t>50 - utilisateur</t>
@@ -134,6 +131,9 @@
     <t>jlh@cnetp.fr</t>
   </si>
   <si>
+    <t>TMA</t>
+  </si>
+  <si>
     <t>0000-00-00</t>
   </si>
   <si>
@@ -152,7 +152,8 @@
     <t>C0910@cnetp.fr</t>
   </si>
   <si>
-    <t>DSI</t>
+    <t xml:space="preserve">Chef de projet TMA AUBAY
+</t>
   </si>
   <si>
     <t>2023-07-20 11:33:03</t>
@@ -167,10 +168,7 @@
     <t>C0456</t>
   </si>
   <si>
-    <t>Service Etudes &amp; Homologation</t>
-  </si>
-  <si>
-    <t>Chef de service Etudes et Homo</t>
+    <t>Analyste</t>
   </si>
   <si>
     <t>2023-07-20 11:33:06</t>
@@ -633,19 +631,19 @@
         <v>29</v>
       </c>
       <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
         <v>30</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>31</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>32</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>33</v>
-      </c>
-      <c r="J4" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -653,19 +651,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
         <v>35</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>36</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>37</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>38</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
       </c>
       <c r="G5" t="s">
         <v>15</v>
@@ -729,10 +727,10 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" t="s">
         <v>50</v>
-      </c>
-      <c r="G7" t="s">
-        <v>51</v>
       </c>
       <c r="H7" t="s">
         <v>24</v>
@@ -741,7 +739,7 @@
         <v>39</v>
       </c>
       <c r="J7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/includes/lst-employes.xlsx
+++ b/includes/lst-employes.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="58">
   <si>
     <t>ID</t>
   </si>
@@ -71,7 +71,7 @@
     <t>2023-06-01</t>
   </si>
   <si>
-    <t>2023-11-15 10:15:04</t>
+    <t>2023-12-19 11:22:29</t>
   </si>
   <si>
     <t>NANKOO</t>
@@ -89,34 +89,34 @@
     <t>Administrateur réseau adjoint</t>
   </si>
   <si>
+    <t>90 - Chef de service</t>
+  </si>
+  <si>
+    <t>2023-06-01 14:55:08</t>
+  </si>
+  <si>
+    <t>PIGOUCHET</t>
+  </si>
+  <si>
+    <t>Etienne</t>
+  </si>
+  <si>
+    <t>C0123</t>
+  </si>
+  <si>
+    <t>c0123@cnetp.fr</t>
+  </si>
+  <si>
+    <t>DSI</t>
+  </si>
+  <si>
     <t>80 - Admin</t>
   </si>
   <si>
-    <t>2023-06-01 14:55:08</t>
-  </si>
-  <si>
-    <t>PIGOUCHET</t>
-  </si>
-  <si>
-    <t>Etienne</t>
-  </si>
-  <si>
-    <t>C0123</t>
-  </si>
-  <si>
-    <t>c0123@cnetp.fr</t>
-  </si>
-  <si>
-    <t>DSI</t>
-  </si>
-  <si>
-    <t>50 - utilisateur</t>
-  </si>
-  <si>
     <t>2023-06-02</t>
   </si>
   <si>
-    <t>2023-06-02 14:40:17</t>
+    <t>2023-11-15 17:15:02</t>
   </si>
   <si>
     <t xml:space="preserve">HAOUZI </t>
@@ -137,7 +137,7 @@
     <t>0000-00-00</t>
   </si>
   <si>
-    <t>2023-07-20 11:21:13</t>
+    <t>2023-11-15 15:06:03</t>
   </si>
   <si>
     <t>GORLIEZ</t>
@@ -156,7 +156,7 @@
 </t>
   </si>
   <si>
-    <t>2023-07-20 11:33:03</t>
+    <t>2023-11-15 16:27:49</t>
   </si>
   <si>
     <t>MALJAOUI</t>
@@ -168,10 +168,28 @@
     <t>C0456</t>
   </si>
   <si>
+    <t>C0456@cnetp.fr</t>
+  </si>
+  <si>
     <t>Analyste</t>
   </si>
   <si>
     <t>2023-07-20 11:33:06</t>
+  </si>
+  <si>
+    <t>MERLINO</t>
+  </si>
+  <si>
+    <t>Elodie</t>
+  </si>
+  <si>
+    <t>c0920</t>
+  </si>
+  <si>
+    <t>elodie.merlino@cnetp.fr</t>
+  </si>
+  <si>
+    <t>2023-11-30 17:08:19</t>
   </si>
 </sst>
 </file>
@@ -510,7 +528,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -724,13 +742,13 @@
         <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F7" t="s">
         <v>38</v>
       </c>
       <c r="G7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H7" t="s">
         <v>24</v>
@@ -739,7 +757,39 @@
         <v>39</v>
       </c>
       <c r="J7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" t="s">
         <v>51</v>
+      </c>
+      <c r="H8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
